--- a/waterServiceSize.xlsx
+++ b/waterServiceSize.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbb916d8bd528a6/Projects/waterServiceCalulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\SkyDrive\Projects\waterServiceCalulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7354FA-6172-4AD8-A4C7-77FF02DDB7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DD7354FA-6172-4AD8-A4C7-77FF02DDB7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70FE4FCA-7277-4425-B1B0-ECB3B118AA5D}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UvblZMtjKV6H087SbPk2of9/E92WrZGseziMP51WLIGy8pNrZ7hDfqudNcdZcNJaukcJ6vDkxfanZQqjxnMpWA==" workbookSaltValue="4T7rW40atzbTRbwFArak0Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="315" windowWidth="17055" windowHeight="15030" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17505" yWindow="1020" windowWidth="17790" windowHeight="13665" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPC Appendix A Calculation" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>LAWN SPRINKLERS</t>
   </si>
   <si>
-    <t>WASHFOUNTAIN(CIRCULAR SPRAY)(20GPM)</t>
-  </si>
-  <si>
     <t>TUB/SHOWER</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>0.43 X</t>
+  </si>
+  <si>
+    <t>WASHFOUNTAIN(CIRCULAR SPRAY)(2.0GPM)</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -800,6 +800,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1644,7 +1647,7 @@
   <dimension ref="A1:XFC306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:E49"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1776,8 +1779,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
+      <c r="A8" s="91" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1872,7 +1875,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1909,7 +1912,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1946,7 +1949,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1965,7 +1968,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2041,7 +2044,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="75"/>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
@@ -2083,7 +2086,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="67">
         <v>0</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="67">
         <v>0</v>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="67">
         <v>0</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="67">
         <v>0</v>
@@ -2169,7 +2172,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="67">
         <v>0</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="4"/>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
@@ -2212,7 +2215,7 @@
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="74"/>
       <c r="C35" s="74"/>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -2267,11 +2270,11 @@
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="19">
         <v>20</v>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2338,7 +2341,7 @@
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -2462,7 +2465,7 @@
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="80"/>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="83"/>
       <c r="C50" s="83"/>
@@ -2664,7 +2667,7 @@
     <row r="100" spans="6:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="101" spans="6:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="F101" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101" s="69"/>
       <c r="H101" s="69"/>
@@ -2674,20 +2677,20 @@
     </row>
     <row r="102" spans="6:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F102" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G102" s="21" t="s">
+      <c r="H102" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H102" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="I102" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J102" s="22"/>
       <c r="K102" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="6:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -7236,7 +7239,7 @@
     <row r="305" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="306" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jc+lC2eu8C3w38/qevwn52oP+BH7eLMaFQKfav/3mTRKzm628somERCAEOwNkGiTfLmqPuJWtakLtOA9sI3IOg==" saltValue="OkSY9ILEDGtGDwWl+ZMf7g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p4zFaVFoOAzGFjeH3GrUmwkW9Y+up+XbbCnk7pdCF9X+uYfEdmO7Pe0jCDgYpED/BKwAaTwW0BVuUfGa5ArHLA==" saltValue="BGPObmHRVZJgcC4YTobSvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="B26:B27" name="emergency fixtures"/>
     <protectedRange sqref="A41 E41" name="other pressure losses"/>
@@ -7303,7 +7306,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -7314,46 +7317,46 @@
       <c r="A2" s="54"/>
       <c r="B2" s="55"/>
       <c r="C2" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="57">
         <v>4.8</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="59"/>
       <c r="C3" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="61">
         <v>114</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="61">
         <v>211</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="61">
         <v>19.2</v>
@@ -7364,7 +7367,7 @@
       <c r="A6" s="45"/>
       <c r="B6" s="59"/>
       <c r="C6" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="61">
         <v>110</v>
@@ -7375,42 +7378,42 @@
       <c r="A7" s="45"/>
       <c r="B7" s="59"/>
       <c r="C7" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="61">
         <f>D2-(2*(D2/D5)*1.04)</f>
         <v>4.2799999999999994</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="62"/>
       <c r="C8" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="61">
         <f>(0.0009015*D3/(D7^4.8655))*(100*D4/D6)^1.85</f>
         <v>1.4552144516140171</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
       <c r="B9" s="49"/>
       <c r="C9" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="47">
         <f>0.485*D4/(D7^2)</f>
         <v>5.586459516114946</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,7 +7439,7 @@
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="43"/>
@@ -7445,7 +7448,7 @@
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="38"/>
@@ -7453,7 +7456,7 @@
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>

--- a/waterServiceSize.xlsx
+++ b/waterServiceSize.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\SkyDrive\Projects\waterServiceCalulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DD7354FA-6172-4AD8-A4C7-77FF02DDB7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70FE4FCA-7277-4425-B1B0-ECB3B118AA5D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{DD7354FA-6172-4AD8-A4C7-77FF02DDB7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77D3E307-714F-46F0-909A-414A40B0F5DF}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UvblZMtjKV6H087SbPk2of9/E92WrZGseziMP51WLIGy8pNrZ7hDfqudNcdZcNJaukcJ6vDkxfanZQqjxnMpWA==" workbookSaltValue="4T7rW40atzbTRbwFArak0Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="17505" yWindow="1020" windowWidth="17790" windowHeight="13665" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="0" windowWidth="19065" windowHeight="15600" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPC Appendix A Calculation" sheetId="1" r:id="rId1"/>
@@ -735,6 +735,9 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,9 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:XFC306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1663,13 +1663,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="69" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2">
@@ -2061,11 +2061,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
         <v>0</v>
@@ -2076,13 +2076,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -2202,11 +2202,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="4">
         <f>SUM(D25:D31)</f>
         <v>0</v>
@@ -2244,12 +2244,12 @@
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="20">
         <v>150</v>
       </c>
@@ -2260,13 +2260,13 @@
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -2340,12 +2340,12 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="4">
         <f>SUM(E37:E41)</f>
         <v>48.6</v>
@@ -2464,13 +2464,13 @@
       <c r="R48" s="53"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
       <c r="H49" s="53"/>
@@ -2486,13 +2486,13 @@
       <c r="R49" s="53"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="85"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="53"/>
@@ -2508,11 +2508,11 @@
       <c r="R50" s="53"/>
     </row>
     <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85"/>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
       <c r="H51" s="53"/>
@@ -2528,11 +2528,11 @@
       <c r="R51" s="53"/>
     </row>
     <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="87"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="88"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="53"/>
@@ -2666,14 +2666,14 @@
     <row r="99" spans="6:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="6:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="101" spans="6:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="F101" s="69" t="s">
+      <c r="F101" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="69"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
     </row>
     <row r="102" spans="6:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F102" s="21" t="s">
@@ -7277,7 +7277,7 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LTodd Miller
 todd@designbuild.support
-661-588-7961&amp;R&amp;G</oddHeader>
+661-558-7961&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C2005 EYE Street, Suite 4 - #116, Bakersfield, CA 93301
 www.designbuild.support</oddFooter>
   </headerFooter>
@@ -7305,13 +7305,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
